--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/146.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/146.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1121873532746948</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.421286622503588</v>
+        <v>-2.497561472575669</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1684543346744768</v>
+        <v>-0.1976030537369432</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0363686170703793</v>
+        <v>0.0116345038662153</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.08751892981958873</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.535094771181391</v>
+        <v>-2.619012537253803</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2331827764150412</v>
+        <v>-0.2483850492829865</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02216722403297752</v>
+        <v>-0.006922942644521108</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.06244990126605437</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.704291646276717</v>
+        <v>-2.794606260406862</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2305436496467523</v>
+        <v>-0.2025220639949163</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03719566950804967</v>
+        <v>0.0108971097680269</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.03874353194739719</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.889464173658104</v>
+        <v>-2.975785942077918</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2108761475043344</v>
+        <v>-0.1366823467813169</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05211432926130716</v>
+        <v>0.01808685470553301</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.01566986196827628</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.060362727441556</v>
+        <v>-3.108602878567252</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1971675703737451</v>
+        <v>-0.1143067968341377</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05559697632553857</v>
+        <v>0.01137345781656714</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.008615484518531471</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.943884955961626</v>
+        <v>-2.940049164825557</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1572433827151707</v>
+        <v>-0.04380423604679942</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07729490440085074</v>
+        <v>0.04229399644498668</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.03892500975370251</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.753722057603086</v>
+        <v>-2.718186859134391</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.203333868415668</v>
+        <v>-0.0761922438234748</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1055153241933066</v>
+        <v>0.06676645367882576</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.08037649614836422</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.271186363797244</v>
+        <v>-2.213258537602421</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2418290119286216</v>
+        <v>-0.1189543923909579</v>
       </c>
       <c r="G9" t="n">
-        <v>0.119439203322788</v>
+        <v>0.07432032126035046</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.13648050767453</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.844432185324749</v>
+        <v>-1.753460076705069</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3197341799696511</v>
+        <v>-0.1782581996325251</v>
       </c>
       <c r="G10" t="n">
-        <v>0.170171185373338</v>
+        <v>0.135932678263409</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2084180764540954</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.328291691992119</v>
+        <v>-1.214627484594027</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.4229303187927155</v>
+        <v>-0.2857353716856841</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2501726507803505</v>
+        <v>0.2195338955045886</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2941762490695837</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7659863026364282</v>
+        <v>-0.6619942173302076</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7627274964605633</v>
+        <v>-0.6214570593915013</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2993743418529396</v>
+        <v>0.2813987596678209</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3904428884969133</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2206403676183941</v>
+        <v>-0.14277545434203</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.070405031449505</v>
+        <v>-0.9156657160758156</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3501252314444688</v>
+        <v>0.3440577405521791</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4942063355334934</v>
       </c>
       <c r="E14" t="n">
-        <v>0.437755584676246</v>
+        <v>0.5253450732226811</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.379399385179545</v>
+        <v>-1.197453338178156</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5331917027290448</v>
+        <v>0.5404503687030235</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6042300953917837</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9315071098068083</v>
+        <v>0.9954072792683488</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.698967933682367</v>
+        <v>-1.530925028507449</v>
       </c>
       <c r="G15" t="n">
-        <v>0.599344309249816</v>
+        <v>0.6047177104119663</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7192961143705643</v>
       </c>
       <c r="E16" t="n">
-        <v>1.50578219244368</v>
+        <v>1.554680143019248</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.983169011902599</v>
+        <v>-1.788439637437247</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6979001715641812</v>
+        <v>0.6724006079106983</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8369489813873306</v>
       </c>
       <c r="E17" t="n">
-        <v>2.034648680696658</v>
+        <v>2.04780527961479</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.336584498440878</v>
+        <v>-2.159247012072996</v>
       </c>
       <c r="G17" t="n">
-        <v>0.778593287018626</v>
+        <v>0.7282315268188621</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9539583977799371</v>
       </c>
       <c r="E18" t="n">
-        <v>2.399774034307822</v>
+        <v>2.380148006771423</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.658337172887134</v>
+        <v>-2.48754962466685</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9649826061501254</v>
+        <v>0.916934275077267</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.065907132211199</v>
       </c>
       <c r="E19" t="n">
-        <v>2.579477402980809</v>
+        <v>2.504049732728731</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.999879333611158</v>
+        <v>-2.844503870971621</v>
       </c>
       <c r="G19" t="n">
-        <v>1.076876213823617</v>
+        <v>1.007363554294641</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.166768136245592</v>
       </c>
       <c r="E20" t="n">
-        <v>2.896792294583047</v>
+        <v>2.797552101269371</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.334404661909534</v>
+        <v>-3.163485675783411</v>
       </c>
       <c r="G20" t="n">
-        <v>1.206314189763767</v>
+        <v>1.134096532033413</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.250767784292725</v>
       </c>
       <c r="E21" t="n">
-        <v>3.200475459059966</v>
+        <v>3.074965982198751</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.622887688240876</v>
+        <v>-3.4726584313114</v>
       </c>
       <c r="G21" t="n">
-        <v>1.398309899755934</v>
+        <v>1.323500079149401</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.314567749536617</v>
       </c>
       <c r="E22" t="n">
-        <v>3.363954937731455</v>
+        <v>3.204537530767108</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.842698220775462</v>
+        <v>-3.716540398234863</v>
       </c>
       <c r="G22" t="n">
-        <v>1.432570973930903</v>
+        <v>1.331832815435133</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.357448645804073</v>
       </c>
       <c r="E23" t="n">
-        <v>3.511880219304515</v>
+        <v>3.338911594744179</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.062197998725245</v>
+        <v>-3.952197889792718</v>
       </c>
       <c r="G23" t="n">
-        <v>1.549431165675154</v>
+        <v>1.489697974277157</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.378636789899715</v>
       </c>
       <c r="E24" t="n">
-        <v>3.575250977618638</v>
+        <v>3.3890226775458</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.251606120246309</v>
+        <v>-4.113487753234681</v>
       </c>
       <c r="G24" t="n">
-        <v>1.582932888607572</v>
+        <v>1.530410789370766</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.377749468249733</v>
       </c>
       <c r="E25" t="n">
-        <v>3.653158585342374</v>
+        <v>3.434310507635697</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.310221936964505</v>
+        <v>-4.165766494121464</v>
       </c>
       <c r="G25" t="n">
-        <v>1.614601799906361</v>
+        <v>1.565833152514263</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.356999998700705</v>
       </c>
       <c r="E26" t="n">
-        <v>3.545669824796357</v>
+        <v>3.277203480194872</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.333550183008764</v>
+        <v>-4.184557235291057</v>
       </c>
       <c r="G26" t="n">
-        <v>1.580879895609638</v>
+        <v>1.537079052129653</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.320825440894061</v>
       </c>
       <c r="E27" t="n">
-        <v>3.676551482978369</v>
+        <v>3.384315309762658</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.312348730364325</v>
+        <v>-4.136477188343007</v>
       </c>
       <c r="G27" t="n">
-        <v>1.534971776191488</v>
+        <v>1.479947172417985</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.275199820345179</v>
       </c>
       <c r="E28" t="n">
-        <v>3.574099447380938</v>
+        <v>3.260041532192535</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.202625220458703</v>
+        <v>-4.016352701136801</v>
       </c>
       <c r="G28" t="n">
-        <v>1.48250274005356</v>
+        <v>1.419288731353361</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.224647023643524</v>
       </c>
       <c r="E29" t="n">
-        <v>3.46565799073784</v>
+        <v>3.102499021388511</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.192002841952458</v>
+        <v>-3.986048792312573</v>
       </c>
       <c r="G29" t="n">
-        <v>1.459678288488294</v>
+        <v>1.391017688144735</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.171732326649232</v>
       </c>
       <c r="E30" t="n">
-        <v>3.355318460948702</v>
+        <v>2.940286957883305</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.987641600159901</v>
+        <v>-3.748798187947053</v>
       </c>
       <c r="G30" t="n">
-        <v>1.370060813691671</v>
+        <v>1.283182492654324</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.117135537919029</v>
       </c>
       <c r="E31" t="n">
-        <v>3.216033315682455</v>
+        <v>2.817678263760703</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.968204648033294</v>
+        <v>-3.719068519439984</v>
       </c>
       <c r="G31" t="n">
-        <v>1.241590781865521</v>
+        <v>1.125442977471712</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.06070927147885</v>
       </c>
       <c r="E32" t="n">
-        <v>3.025048854172336</v>
+        <v>2.600788031426386</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.863797206746208</v>
+        <v>-3.597010583688486</v>
       </c>
       <c r="G32" t="n">
-        <v>1.226090257786646</v>
+        <v>1.097725132316896</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.001933423138593</v>
       </c>
       <c r="E33" t="n">
-        <v>2.783971607480898</v>
+        <v>2.326362761813072</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.793326056873722</v>
+        <v>-3.521420979496731</v>
       </c>
       <c r="G33" t="n">
-        <v>1.067826820742706</v>
+        <v>0.9240764462019867</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.940439283074279</v>
       </c>
       <c r="E34" t="n">
-        <v>2.546219648319092</v>
+        <v>2.092567968002007</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.591732940072585</v>
+        <v>-3.291496132379632</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9518869992996679</v>
+        <v>0.7981430744704314</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8757297900970842</v>
       </c>
       <c r="E35" t="n">
-        <v>2.344170005891409</v>
+        <v>1.904220803498146</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.520923589184842</v>
+        <v>-3.200222722945638</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9136010585788389</v>
+        <v>0.7658922988460244</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8076818478095955</v>
       </c>
       <c r="E36" t="n">
-        <v>2.146893602679957</v>
+        <v>1.70779097018602</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.317155190290084</v>
+        <v>-2.976486131014825</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8206930617311606</v>
+        <v>0.6619502270352972</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7353168598305942</v>
       </c>
       <c r="E37" t="n">
-        <v>1.866456954876613</v>
+        <v>1.442066828947194</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.26475842975235</v>
+        <v>-2.920526213883529</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7969518993887426</v>
+        <v>0.659720966961783</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6584680012361802</v>
       </c>
       <c r="E38" t="n">
-        <v>1.64751433946504</v>
+        <v>1.226838630457016</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.171335964813835</v>
+        <v>-2.819686198634742</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7758980475480763</v>
+        <v>0.6287156493592955</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5770660769307615</v>
       </c>
       <c r="E39" t="n">
-        <v>1.45395662261972</v>
+        <v>1.065695147977472</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.033600627987205</v>
+        <v>-2.682930394414969</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6546543559000368</v>
+        <v>0.5040893376380112</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.492398785953931</v>
       </c>
       <c r="E40" t="n">
-        <v>1.212179796912053</v>
+        <v>0.8297009802060528</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.968134182227775</v>
+        <v>-2.642496313070634</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5779995252463409</v>
+        <v>0.433986274893943</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4053886935844604</v>
       </c>
       <c r="E41" t="n">
-        <v>0.943457285626333</v>
+        <v>0.577026091846251</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.835142198504215</v>
+        <v>-2.517977347388457</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5516973059822576</v>
+        <v>0.4219897451029854</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.31760156979551</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6884220042475163</v>
+        <v>0.315721435831141</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.782501164735443</v>
+        <v>-2.49026926096447</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5365230894654427</v>
+        <v>0.4114271388230626</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2312473702776151</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5182626743242826</v>
+        <v>0.1739142685665408</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.672989907225329</v>
+        <v>-2.380853761000605</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4702613071435338</v>
+        <v>0.3292805823959271</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1480940369392912</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3256509444485994</v>
+        <v>-0.02185990001808105</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.60482090294723</v>
+        <v>-2.31472067194149</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4606611556915193</v>
+        <v>0.3357250042664471</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.06930484041563646</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2785455507419934</v>
+        <v>-0.06647803720490848</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.538702451984356</v>
+        <v>-2.284547286142087</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4021587842191991</v>
+        <v>0.2952750649845159</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.004078070126497822</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09660926247143148</v>
+        <v>-0.2314902465370653</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.503921725392798</v>
+        <v>-2.283030413419014</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2954690197597218</v>
+        <v>0.1970125745156665</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.07140732148881505</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.02230392227075363</v>
+        <v>-0.3342612706484363</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.435070829798093</v>
+        <v>-2.221814504855842</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2774556224926447</v>
+        <v>0.1815138801988216</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1322661243328553</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.0725778538930658</v>
+        <v>-0.3484724224166661</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.33592944363405</v>
+        <v>-2.121084885249547</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2148789808996474</v>
+        <v>0.1135028453759992</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1866587473156237</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1812364422970858</v>
+        <v>-0.4429649931825357</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.245937477541905</v>
+        <v>-2.03478415909308</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1758458873498019</v>
+        <v>0.09030756203927055</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2343963895126372</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2533144281924643</v>
+        <v>-0.5006183550728226</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.191905214709471</v>
+        <v>-1.990209326274302</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1361931143923804</v>
+        <v>0.04571138199680605</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2760778055009998</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3109775488135792</v>
+        <v>-0.5546353698883376</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.081145449574054</v>
+        <v>-1.870652065297471</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1126349282529867</v>
+        <v>0.03420522842995394</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3127900576744356</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.420421105128574</v>
+        <v>-0.6610244434541781</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.043516393422082</v>
+        <v>-1.846325989026051</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04650061935251804</v>
+        <v>-0.0346090719241457</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3454531516352902</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5155650711772105</v>
+        <v>-0.7399908734727492</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.979928503347037</v>
+        <v>-1.785613265021196</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03668028653619755</v>
+        <v>-0.03312269523491068</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3750539029054774</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.6132999802606728</v>
+        <v>-0.8245161205392021</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.947187351498524</v>
+        <v>-1.754301767238981</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0265843455801715</v>
+        <v>-0.123548924848901</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4023857950454781</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5901339731164281</v>
+        <v>-0.8074914046891335</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.93344400888936</v>
+        <v>-1.734808702410113</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04482097381493844</v>
+        <v>-0.1424351186044046</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4282681829394507</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6314426807112206</v>
+        <v>-0.8347475398916507</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.92190187000258</v>
+        <v>-1.742538837067218</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1106088477710142</v>
+        <v>-0.1954225873175689</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4532142954723966</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.7752943020842803</v>
+        <v>-0.9774805667435544</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.90129326025594</v>
+        <v>-1.713116263620892</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.106111292700674</v>
+        <v>-0.1713197420138391</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4774694190491963</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.8142926301555511</v>
+        <v>-1.008086386302772</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.847641587925797</v>
+        <v>-1.65375512383571</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1380022151257997</v>
+        <v>-0.2346313380223178</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5014193011630732</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.8434712353311782</v>
+        <v>-1.029836767556285</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.874899552890344</v>
+        <v>-1.714941756206399</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1483684269478097</v>
+        <v>-0.2311578397682376</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5253752432377431</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.992931687247613</v>
+        <v>-1.206915037636548</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.901560405512356</v>
+        <v>-1.735098414731569</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1860822620738491</v>
+        <v>-0.2586707515756658</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5493976628931792</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.099437865583389</v>
+        <v>-1.338404176812602</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.842312710973049</v>
+        <v>-1.684109656076108</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1565724699707479</v>
+        <v>-0.245396437966921</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5736267084022211</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.081743456830251</v>
+        <v>-1.312933279430926</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.79183933528944</v>
+        <v>-1.639213395060683</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2115891447754529</v>
+        <v>-0.288444639331799</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5980742925591697</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.188358810967165</v>
+        <v>-1.447296364835816</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.816428287372538</v>
+        <v>-1.672422965988938</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2471341019749763</v>
+        <v>-0.3159569412185503</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6228100385539693</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.266247511149923</v>
+        <v>-1.555242565889394</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.834114767156879</v>
+        <v>-1.691044454170733</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2355651265784191</v>
+        <v>-0.3105981781526419</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6472400258529998</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.297898734749086</v>
+        <v>-1.584084494851457</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.885150489704449</v>
+        <v>-1.737799753408886</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2616563132883475</v>
+        <v>-0.3298332465352454</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6713973114929473</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.309760472070483</v>
+        <v>-1.583099472958508</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.934579071268788</v>
+        <v>-1.773860703500938</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3071588354564596</v>
+        <v>-0.3748710091476755</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6953127413505468</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.331786537469885</v>
+        <v>-1.600090033250679</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.970966938843578</v>
+        <v>-1.821522344864738</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3116155258414577</v>
+        <v>-0.387521373904107</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7189576752195336</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.37675781872855</v>
+        <v>-1.636515715907427</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.996281086611329</v>
+        <v>-1.82877857115601</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3448196074836219</v>
+        <v>-0.4095870841474982</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7424849310214335</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.290427816379599</v>
+        <v>-1.519044993565751</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.120220017729918</v>
+        <v>-1.965558162282176</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3060646377623736</v>
+        <v>-0.3692493702700887</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7656042176126489</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.33642010485114</v>
+        <v>-1.570509490349075</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.119673528803552</v>
+        <v>-1.937158425810756</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3157562773159002</v>
+        <v>-0.3863619146976089</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7880417843984396</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.378213699383947</v>
+        <v>-1.614295695732818</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.169122847670901</v>
+        <v>-1.999228833242052</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3105957384699349</v>
+        <v>-0.3760237592267294</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8093458791455888</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.313606631858056</v>
+        <v>-1.539792665226689</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.31079888199</v>
+        <v>-2.159386073987295</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.345182510286287</v>
+        <v>-0.4063953692460757</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8289875836429408</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.336508543349268</v>
+        <v>-1.57853970597914</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.332969498589792</v>
+        <v>-2.204974594970828</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3699099143630068</v>
+        <v>-0.4392524060231703</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8464017481213337</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.288873128574568</v>
+        <v>-1.519057191979285</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.379608302978686</v>
+        <v>-2.261039723418863</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3805963345403096</v>
+        <v>-0.4467483311404039</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8606242741842288</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.217603897496558</v>
+        <v>-1.387177093649437</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.47425762335848</v>
+        <v>-2.359692563120831</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.385700760684014</v>
+        <v>-0.4492252190086778</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8704208003398851</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.116667514780845</v>
+        <v>-1.289601373862606</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.480288519010164</v>
+        <v>-2.379474730350478</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3580128016423592</v>
+        <v>-0.4232450378619175</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8743693679879475</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.007735681913642</v>
+        <v>-1.156700268319881</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.496287348281943</v>
+        <v>-2.392829553488554</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3119497623723156</v>
+        <v>-0.3554798010718245</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.8711917714272648</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.8373214051475275</v>
+        <v>-0.9769212694829765</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.500179252120272</v>
+        <v>-2.411795036932034</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3245751203810004</v>
+        <v>-0.3777016510084633</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.8604505231559803</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6694370793485641</v>
+        <v>-0.7783457352300508</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.487363598860442</v>
+        <v>-2.374581946681605</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.308438449036277</v>
+        <v>-0.3536890739648922</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.8418035625046568</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5144232996703382</v>
+        <v>-0.6052825729648196</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.5599142732803</v>
+        <v>-2.51332914191096</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2512602153531769</v>
+        <v>-0.2842508247584793</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.8155544687827853</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2247646512345645</v>
+        <v>-0.2927836150261847</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.574784139379418</v>
+        <v>-2.529718320415857</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2341598693391916</v>
+        <v>-0.2580175265308686</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.7823221801179052</v>
       </c>
       <c r="E82" t="n">
-        <v>0.09604264616273253</v>
+        <v>0.08084830226358491</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.541789870450055</v>
+        <v>-2.531671286422804</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1526811760530953</v>
+        <v>-0.1688263862872931</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.7427379594240455</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2485386732873425</v>
+        <v>0.2384621737867878</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.529103520373695</v>
+        <v>-2.53348945996019</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.09433860379808301</v>
+        <v>-0.09250762192648534</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.6978699959013283</v>
       </c>
       <c r="E84" t="n">
-        <v>0.506842519572852</v>
+        <v>0.512742282279036</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.450163926864901</v>
+        <v>-2.446830710366473</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.08043302228890405</v>
+        <v>-0.07098596092675337</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.6485262190267717</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6745395997240538</v>
+        <v>0.684230019436227</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.399597843238427</v>
+        <v>-2.417497185338952</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.06131566859691291</v>
+        <v>-0.02718572736744509</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.5960849450911724</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9353191140364837</v>
+        <v>0.9797274385105098</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.420538859753894</v>
+        <v>-2.457977010734044</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05431316930716846</v>
+        <v>-0.02815428140212101</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5416843662147959</v>
       </c>
       <c r="E87" t="n">
-        <v>1.100320954717136</v>
+        <v>1.157356466961877</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.319430479407338</v>
+        <v>-2.369432386407821</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01386323002523726</v>
+        <v>0.03827400926454023</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.4865188603955216</v>
       </c>
       <c r="E88" t="n">
-        <v>1.288516858893163</v>
+        <v>1.366982544036124</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.178804118572923</v>
+        <v>-2.268289850503368</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01013348908073833</v>
+        <v>0.06067273619743591</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.431721239172395</v>
       </c>
       <c r="E89" t="n">
-        <v>1.375339067228249</v>
+        <v>1.43212695167823</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.982587147576982</v>
+        <v>-2.07082681156483</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05903326941833713</v>
+        <v>0.1185389604039079</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3782329607555998</v>
       </c>
       <c r="E90" t="n">
-        <v>1.430737552376598</v>
+        <v>1.480241154184178</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.798402691691926</v>
+        <v>-1.909630875907086</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05128910658566704</v>
+        <v>0.100062633343179</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.3266031534312509</v>
       </c>
       <c r="E91" t="n">
-        <v>1.468610576799269</v>
+        <v>1.545002531641287</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.473647987674716</v>
+        <v>-1.566518779361112</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05215153442258879</v>
+        <v>0.110658785260323</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2770675826684122</v>
       </c>
       <c r="E92" t="n">
-        <v>1.530083871888029</v>
+        <v>1.616129651201615</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.230168873358245</v>
+        <v>-1.297156461285484</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04836819646472059</v>
+        <v>0.1063631139339864</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2299598731486364</v>
       </c>
       <c r="E93" t="n">
-        <v>1.58489317366264</v>
+        <v>1.669811209644918</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.9645569575239399</v>
+        <v>-1.027022593553769</v>
       </c>
       <c r="G93" t="n">
-        <v>0.07275831440719868</v>
+        <v>0.1413384052214271</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1853240367948352</v>
       </c>
       <c r="E94" t="n">
-        <v>1.61906763910151</v>
+        <v>1.727691462026956</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.6977678947835114</v>
+        <v>-0.7618242039382994</v>
       </c>
       <c r="G94" t="n">
-        <v>0.07360427438584824</v>
+        <v>0.1338699265346471</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1429847002737502</v>
       </c>
       <c r="E95" t="n">
-        <v>1.599820372305372</v>
+        <v>1.717719868882802</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.4667628781478914</v>
+        <v>-0.5254470059818825</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01744948759833129</v>
+        <v>0.09716002084253499</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1026199809986667</v>
       </c>
       <c r="E96" t="n">
-        <v>1.529801478614695</v>
+        <v>1.668275429380867</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.2759735912543314</v>
+        <v>-0.3258718117397668</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02931740013267955</v>
+        <v>0.0258920096058779</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06473210357547131</v>
       </c>
       <c r="E97" t="n">
-        <v>1.443962462410527</v>
+        <v>1.57817306764623</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1253933249753871</v>
+        <v>-0.14984443498554</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03507871084524171</v>
+        <v>0.02934964992236265</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.02951529860470357</v>
       </c>
       <c r="E98" t="n">
-        <v>1.395689070607948</v>
+        <v>1.513594666392145</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.006365475145973382</v>
+        <v>-0.02341153821972811</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08986300587210577</v>
+        <v>-0.01999415266790874</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.002500962933379672</v>
       </c>
       <c r="E99" t="n">
-        <v>1.323788571629503</v>
+        <v>1.432147079060563</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1016124417827958</v>
+        <v>0.08762147137887211</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.108624165888876</v>
+        <v>-0.05457665503952362</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.0298234686655812</v>
       </c>
       <c r="E100" t="n">
-        <v>1.163220244348133</v>
+        <v>1.24043376234173</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1483744501483927</v>
+        <v>0.1403076392777229</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.08230791844922758</v>
+        <v>-0.01721352430261434</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.05095116510781753</v>
       </c>
       <c r="E101" t="n">
-        <v>1.040187655355191</v>
+        <v>1.112756017474675</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1943600294924892</v>
+        <v>0.1970083050709293</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1671442250608219</v>
+        <v>-0.1298256185333153</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.06344278814367174</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8857417118270178</v>
+        <v>0.9243515204272001</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1874234016358336</v>
+        <v>0.1953596894816793</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1444332187414313</v>
+        <v>-0.1028244301736787</v>
       </c>
     </row>
   </sheetData>
